--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Reln-Itga3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Reln-Itga3.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.03565433333333334</v>
+        <v>0.1779566666666667</v>
       </c>
       <c r="H2">
-        <v>0.106963</v>
+        <v>0.5338700000000001</v>
       </c>
       <c r="I2">
-        <v>0.002412342638581826</v>
+        <v>0.01192558037548992</v>
       </c>
       <c r="J2">
-        <v>0.002412342638581825</v>
+        <v>0.01192558037548992</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.269168666666666</v>
+        <v>3.626135</v>
       </c>
       <c r="N2">
-        <v>24.807506</v>
+        <v>10.878405</v>
       </c>
       <c r="O2">
-        <v>0.671680253471746</v>
+        <v>0.4728835835086186</v>
       </c>
       <c r="P2">
-        <v>0.671680253471746</v>
+        <v>0.4728835835086186</v>
       </c>
       <c r="Q2">
-        <v>0.2948316960308889</v>
+        <v>0.6452948974833334</v>
       </c>
       <c r="R2">
-        <v>2.653485264278</v>
+        <v>5.807654077350001</v>
       </c>
       <c r="S2">
-        <v>0.001620322914943341</v>
+        <v>0.005639411183381732</v>
       </c>
       <c r="T2">
-        <v>0.001620322914943341</v>
+        <v>0.005639411183381732</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.03565433333333334</v>
+        <v>0.1779566666666667</v>
       </c>
       <c r="H3">
-        <v>0.106963</v>
+        <v>0.5338700000000001</v>
       </c>
       <c r="I3">
-        <v>0.002412342638581826</v>
+        <v>0.01192558037548992</v>
       </c>
       <c r="J3">
-        <v>0.002412342638581825</v>
+        <v>0.01192558037548992</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -620,22 +620,22 @@
         <v>0.363882</v>
       </c>
       <c r="O3">
-        <v>0.009852354928133683</v>
+        <v>0.01581792773244636</v>
       </c>
       <c r="P3">
-        <v>0.009852354928133683</v>
+        <v>0.01581792773244636</v>
       </c>
       <c r="Q3">
-        <v>0.004324656707333334</v>
+        <v>0.02158507592666667</v>
       </c>
       <c r="R3">
-        <v>0.038921910366</v>
+        <v>0.19426568334</v>
       </c>
       <c r="S3">
-        <v>2.376725588357867E-05</v>
+        <v>0.0001886379685469801</v>
       </c>
       <c r="T3">
-        <v>2.376725588357866E-05</v>
+        <v>0.0001886379685469801</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.03565433333333334</v>
+        <v>0.1779566666666667</v>
       </c>
       <c r="H4">
-        <v>0.106963</v>
+        <v>0.5338700000000001</v>
       </c>
       <c r="I4">
-        <v>0.002412342638581826</v>
+        <v>0.01192558037548992</v>
       </c>
       <c r="J4">
-        <v>0.002412342638581825</v>
+        <v>0.01192558037548992</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>11.762117</v>
       </c>
       <c r="O4">
-        <v>0.3184673916001203</v>
+        <v>0.511298488758935</v>
       </c>
       <c r="P4">
-        <v>0.3184673916001203</v>
+        <v>0.511298488758935</v>
       </c>
       <c r="Q4">
-        <v>0.1397901467412222</v>
+        <v>0.6977157114211111</v>
       </c>
       <c r="R4">
-        <v>1.258111320671</v>
+        <v>6.279441402790001</v>
       </c>
       <c r="S4">
-        <v>0.0007682524677549057</v>
+        <v>0.006097531223561211</v>
       </c>
       <c r="T4">
-        <v>0.0007682524677549056</v>
+        <v>0.00609753122356121</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>24.199846</v>
       </c>
       <c r="I5">
-        <v>0.5457805068380079</v>
+        <v>0.540575811616083</v>
       </c>
       <c r="J5">
-        <v>0.5457805068380079</v>
+        <v>0.540575811616083</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.269168666666666</v>
+        <v>3.626135</v>
       </c>
       <c r="N5">
-        <v>24.807506</v>
+        <v>10.878405</v>
       </c>
       <c r="O5">
-        <v>0.671680253471746</v>
+        <v>0.4728835835086186</v>
       </c>
       <c r="P5">
-        <v>0.671680253471746</v>
+        <v>0.4728835835086186</v>
       </c>
       <c r="Q5">
-        <v>66.70420276045287</v>
+        <v>29.25063619173667</v>
       </c>
       <c r="R5">
-        <v>600.337824844076</v>
+        <v>263.25572572563</v>
       </c>
       <c r="S5">
-        <v>0.3665899891728912</v>
+        <v>0.2556294269550933</v>
       </c>
       <c r="T5">
-        <v>0.3665899891728912</v>
+        <v>0.2556294269550933</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>24.199846</v>
       </c>
       <c r="I6">
-        <v>0.5457805068380079</v>
+        <v>0.540575811616083</v>
       </c>
       <c r="J6">
-        <v>0.5457805068380079</v>
+        <v>0.540575811616083</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -806,10 +806,10 @@
         <v>0.363882</v>
       </c>
       <c r="O6">
-        <v>0.009852354928133683</v>
+        <v>0.01581792773244636</v>
       </c>
       <c r="P6">
-        <v>0.009852354928133683</v>
+        <v>0.01581792773244636</v>
       </c>
       <c r="Q6">
         <v>0.9784320402413332</v>
@@ -818,10 +818,10 @@
         <v>8.805888362172</v>
       </c>
       <c r="S6">
-        <v>0.005377223266224747</v>
+        <v>0.008550789122051738</v>
       </c>
       <c r="T6">
-        <v>0.005377223266224747</v>
+        <v>0.008550789122051738</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>24.199846</v>
       </c>
       <c r="I7">
-        <v>0.5457805068380079</v>
+        <v>0.540575811616083</v>
       </c>
       <c r="J7">
-        <v>0.5457805068380079</v>
+        <v>0.540575811616083</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>11.762117</v>
       </c>
       <c r="O7">
-        <v>0.3184673916001203</v>
+        <v>0.511298488758935</v>
       </c>
       <c r="P7">
-        <v>0.3184673916001203</v>
+        <v>0.511298488758935</v>
       </c>
       <c r="Q7">
         <v>31.62682444822022</v>
@@ -880,10 +880,10 @@
         <v>284.641420033982</v>
       </c>
       <c r="S7">
-        <v>0.173813294398892</v>
+        <v>0.276395595538938</v>
       </c>
       <c r="T7">
-        <v>0.173813294398892</v>
+        <v>0.276395595538938</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>6.677692666666668</v>
+        <v>6.677692666666666</v>
       </c>
       <c r="H8">
         <v>20.033078</v>
       </c>
       <c r="I8">
-        <v>0.4518071505234103</v>
+        <v>0.4474986080084269</v>
       </c>
       <c r="J8">
-        <v>0.4518071505234103</v>
+        <v>0.4474986080084269</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.269168666666666</v>
+        <v>3.626135</v>
       </c>
       <c r="N8">
-        <v>24.807506</v>
+        <v>10.878405</v>
       </c>
       <c r="O8">
-        <v>0.671680253471746</v>
+        <v>0.4728835835086186</v>
       </c>
       <c r="P8">
-        <v>0.671680253471746</v>
+        <v>0.4728835835086186</v>
       </c>
       <c r="Q8">
-        <v>55.21896696482978</v>
+        <v>24.21421509784333</v>
       </c>
       <c r="R8">
-        <v>496.970702683468</v>
+        <v>217.92793588059</v>
       </c>
       <c r="S8">
-        <v>0.3034699413839115</v>
+        <v>0.2116147453701435</v>
       </c>
       <c r="T8">
-        <v>0.3034699413839115</v>
+        <v>0.2116147453701435</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>6.677692666666668</v>
+        <v>6.677692666666666</v>
       </c>
       <c r="H9">
         <v>20.033078</v>
       </c>
       <c r="I9">
-        <v>0.4518071505234103</v>
+        <v>0.4474986080084269</v>
       </c>
       <c r="J9">
-        <v>0.4518071505234103</v>
+        <v>0.4474986080084269</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -992,22 +992,22 @@
         <v>0.363882</v>
       </c>
       <c r="O9">
-        <v>0.009852354928133683</v>
+        <v>0.01581792773244636</v>
       </c>
       <c r="P9">
-        <v>0.009852354928133683</v>
+        <v>0.01581792773244636</v>
       </c>
       <c r="Q9">
-        <v>0.8099640543106669</v>
+        <v>0.8099640543106666</v>
       </c>
       <c r="R9">
-        <v>7.289676488796001</v>
+        <v>7.289676488795999</v>
       </c>
       <c r="S9">
-        <v>0.004451364406025358</v>
+        <v>0.007078500641847639</v>
       </c>
       <c r="T9">
-        <v>0.004451364406025358</v>
+        <v>0.007078500641847638</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.677692666666668</v>
+        <v>6.677692666666666</v>
       </c>
       <c r="H10">
         <v>20.033078</v>
       </c>
       <c r="I10">
-        <v>0.4518071505234103</v>
+        <v>0.4474986080084269</v>
       </c>
       <c r="J10">
-        <v>0.4518071505234103</v>
+        <v>0.4474986080084269</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,22 +1054,22 @@
         <v>11.762117</v>
       </c>
       <c r="O10">
-        <v>0.3184673916001203</v>
+        <v>0.511298488758935</v>
       </c>
       <c r="P10">
-        <v>0.3184673916001203</v>
+        <v>0.511298488758935</v>
       </c>
       <c r="Q10">
-        <v>26.18126747845845</v>
+        <v>26.18126747845844</v>
       </c>
       <c r="R10">
-        <v>235.6314073061261</v>
+        <v>235.631407306126</v>
       </c>
       <c r="S10">
-        <v>0.1438858447334734</v>
+        <v>0.2288053619964358</v>
       </c>
       <c r="T10">
-        <v>0.1438858447334734</v>
+        <v>0.2288053619964357</v>
       </c>
     </row>
   </sheetData>
